--- a/Excel/IdeiaCSV.csv.xlsx
+++ b/Excel/IdeiaCSV.csv.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betis\Documents\Faculdade ADS\Semestre 3\pi\ProjetoGrupo\DOCUMENTAÇÃO\Documentacao-AUTG\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\BandTec\3º Semestre\Repositórios\Documentacao-AUTG\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{927AC1A2-57B3-46DA-A787-A4080BC7B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCE771-88C4-4B23-AD96-0CD4C3B4D65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3205BFF-4DEB-4AA1-82FB-85670DF32728}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3205BFF-4DEB-4AA1-82FB-85670DF32728}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Relatório Detalhado" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatório Simples" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Prédio</t>
   </si>
@@ -377,13 +378,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,36 +405,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -520,10 +502,29 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1486,13 +1487,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{308FEB7D-8D3E-4F8C-AB10-8CD0653B7473}" name="Tabela1" displayName="Tabela1" ref="A10:E11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{308FEB7D-8D3E-4F8C-AB10-8CD0653B7473}" name="Tabela1" displayName="Tabela1" ref="A10:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FFF79ABF-3F49-41B7-8309-99018F280635}" name="Prédio" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A011DA85-4A4A-45AD-8F56-78177DA0AFD8}" name="Nome do prédio" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3FA0A191-F3E9-4855-BAA7-020F96FA326E}" name="Logradouro" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4EEBA7AF-0609-4652-A9C3-A328E8E019C5}" name="Número" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{74DE827C-5207-4653-A774-9F2CFE03FE51}" name="Cep" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FFF79ABF-3F49-41B7-8309-99018F280635}" name="Prédio" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A011DA85-4A4A-45AD-8F56-78177DA0AFD8}" name="Nome do prédio" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3FA0A191-F3E9-4855-BAA7-020F96FA326E}" name="Logradouro" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4EEBA7AF-0609-4652-A9C3-A328E8E019C5}" name="Número" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{74DE827C-5207-4653-A774-9F2CFE03FE51}" name="Cep" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1798,35 +1799,35 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1836,14 +1837,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +1853,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -1865,7 +1866,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1878,14 +1879,14 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1895,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1928,23 +1929,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2097,15 +2098,15 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2115,11 +2116,11 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <f>SUM(C15:C22)</f>
         <v>1205568</v>
       </c>
@@ -2127,11 +2128,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <f>SUM(E15:E22)</f>
         <v>346.48</v>
       </c>
@@ -2155,6 +2156,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D9E34-09D1-4386-AA71-D54C2FF510C9}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>150696</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>150696</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>150696</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>150696</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>150696</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>150696</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>150696</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>150696</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA93F7-147E-4836-8A7C-A6951315924A}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -2162,9 +2343,9 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2202,7 +2383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>200</v>
       </c>

--- a/Excel/IdeiaCSV.csv.xlsx
+++ b/Excel/IdeiaCSV.csv.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\BandTec\3º Semestre\Repositórios\Documentacao-AUTG\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCE771-88C4-4B23-AD96-0CD4C3B4D65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07B4F70-94D2-4F2F-B309-8C0527E2B06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3205BFF-4DEB-4AA1-82FB-85670DF32728}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Detalhado" sheetId="1" r:id="rId1"/>
-    <sheet name="Relatório Simples" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Prédio</t>
   </si>
@@ -366,9 +365,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -410,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1799,7 +1798,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,13 +1810,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1827,7 +1826,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1845,22 +1844,22 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="7"/>
@@ -1887,28 +1886,28 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1937,28 +1936,28 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1969,7 +1968,7 @@
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="25">
         <v>150696</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1986,7 +1985,7 @@
       <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="25">
         <v>150696</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2003,7 +2002,7 @@
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="25">
         <v>150696</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2020,7 +2019,7 @@
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="25">
         <v>150696</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2037,7 +2036,7 @@
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="25">
         <v>150696</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2054,7 +2053,7 @@
       <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="25">
         <v>150696</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2071,7 +2070,7 @@
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="25">
         <v>150696</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2088,7 +2087,7 @@
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="25">
         <v>150696</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2106,7 +2105,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2117,10 +2116,10 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <f>SUM(C15:C22)</f>
         <v>1205568</v>
       </c>
@@ -2129,10 +2128,10 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <f>SUM(E15:E22)</f>
         <v>346.48</v>
       </c>
@@ -2156,186 +2155,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D9E34-09D1-4386-AA71-D54C2FF510C9}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>150696</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6">
-        <v>43.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>150696</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6">
-        <v>43.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>150696</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6">
-        <v>43.31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>150696</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6">
-        <v>43.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
-        <v>150696</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6">
-        <v>43.31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>150696</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6">
-        <v>43.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>150696</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>150696</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6">
-        <v>43.31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA93F7-147E-4836-8A7C-A6951315924A}">
   <dimension ref="A1:L2"/>
   <sheetViews>

--- a/Excel/IdeiaCSV.csv.xlsx
+++ b/Excel/IdeiaCSV.csv.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\BandTec\3º Semestre\Repositórios\Documentacao-AUTG\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07B4F70-94D2-4F2F-B309-8C0527E2B06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A07AD86-9291-4C04-B940-D46E75FB6090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3205BFF-4DEB-4AA1-82FB-85670DF32728}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relatório Detalhado" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Relatório Detalhado - Modificad" sheetId="3" r:id="rId1"/>
+    <sheet name="Relatório Detalhado" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>Prédio</t>
   </si>
@@ -165,6 +166,9 @@
   </si>
   <si>
     <t>R$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandeira - Amarela </t>
   </si>
 </sst>
 </file>
@@ -247,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -329,11 +333,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -383,6 +398,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,14 +425,112 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1486,13 +1602,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{308FEB7D-8D3E-4F8C-AB10-8CD0653B7473}" name="Tabela1" displayName="Tabela1" ref="A10:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C49ABE6-31A3-49DF-9780-97E5A1CE4E77}" name="Tabela13" displayName="Tabela13" ref="A10:D11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C91EA6E8-643F-44C6-AC38-7FD0F05664FB}" name="Nome do prédio" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2037791F-50F9-4691-9FAF-95ECC640EA17}" name="Logradouro" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1C71459-C2B7-4869-96F4-6B3DF4C58BB3}" name="Número" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{70DE56AB-1D56-4386-B3E4-DC3FB9E67B61}" name="Cep" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{308FEB7D-8D3E-4F8C-AB10-8CD0653B7473}" name="Tabela1" displayName="Tabela1" ref="A10:E11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FFF79ABF-3F49-41B7-8309-99018F280635}" name="Prédio" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A011DA85-4A4A-45AD-8F56-78177DA0AFD8}" name="Nome do prédio" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3FA0A191-F3E9-4855-BAA7-020F96FA326E}" name="Logradouro" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{4EEBA7AF-0609-4652-A9C3-A328E8E019C5}" name="Número" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{74DE827C-5207-4653-A774-9F2CFE03FE51}" name="Cep" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FFF79ABF-3F49-41B7-8309-99018F280635}" name="Prédio" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A011DA85-4A4A-45AD-8F56-78177DA0AFD8}" name="Nome do prédio" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3FA0A191-F3E9-4855-BAA7-020F96FA326E}" name="Logradouro" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{4EEBA7AF-0609-4652-A9C3-A328E8E019C5}" name="Número" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{74DE827C-5207-4653-A774-9F2CFE03FE51}" name="Cep" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1794,11 +1922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEDDBA8-277F-4A8B-9A65-810399C9FDD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B65C1B6-1616-4653-8123-6640E53C4DFD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,13 +1938,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1832,7 +1960,9 @@
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -1844,11 +1974,340 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>595</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17">
+        <v>150696</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>150696</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17">
+        <v>150696</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17">
+        <v>150696</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17">
+        <v>150696</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17">
+        <v>150696</v>
+      </c>
+      <c r="D20" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17">
+        <v>150696</v>
+      </c>
+      <c r="D21" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
+        <v>150696</v>
+      </c>
+      <c r="D22" s="6">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="14">
+        <f>SUM(C15:C22)</f>
+        <v>1205568</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15">
+        <f>SUM(D15:D22)</f>
+        <v>346.48</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEDDBA8-277F-4A8B-9A65-810399C9FDD4}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -1886,13 +2345,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -1936,13 +2395,13 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
@@ -1968,7 +2427,7 @@
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="17">
         <v>150696</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1985,7 +2444,7 @@
       <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="17">
         <v>150696</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2002,7 +2461,7 @@
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="17">
         <v>150696</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2019,7 +2478,7 @@
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="17">
         <v>150696</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2036,7 +2495,7 @@
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="17">
         <v>150696</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2053,7 +2512,7 @@
       <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="17">
         <v>150696</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2070,7 +2529,7 @@
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="17">
         <v>150696</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2087,7 +2546,7 @@
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="17">
         <v>150696</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2154,12 +2613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA93F7-147E-4836-8A7C-A6951315924A}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/IdeiaCSV.csv.xlsx
+++ b/Excel/IdeiaCSV.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\BandTec\3º Semestre\Repositórios\Documentacao-AUTG\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A07AD86-9291-4C04-B940-D46E75FB6090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814AD881-AD00-452E-BF1C-3C806DBD6006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3205BFF-4DEB-4AA1-82FB-85670DF32728}"/>
   </bookViews>
@@ -401,6 +401,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -419,118 +427,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -623,6 +527,102 @@
       <border>
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1602,25 +1602,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C49ABE6-31A3-49DF-9780-97E5A1CE4E77}" name="Tabela13" displayName="Tabela13" ref="A10:D11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C49ABE6-31A3-49DF-9780-97E5A1CE4E77}" name="Tabela13" displayName="Tabela13" ref="A10:D11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C91EA6E8-643F-44C6-AC38-7FD0F05664FB}" name="Nome do prédio" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2037791F-50F9-4691-9FAF-95ECC640EA17}" name="Logradouro" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1C71459-C2B7-4869-96F4-6B3DF4C58BB3}" name="Número" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{70DE56AB-1D56-4386-B3E4-DC3FB9E67B61}" name="Cep" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C91EA6E8-643F-44C6-AC38-7FD0F05664FB}" name="Nome do prédio" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2037791F-50F9-4691-9FAF-95ECC640EA17}" name="Logradouro" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F1C71459-C2B7-4869-96F4-6B3DF4C58BB3}" name="Número" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{70DE56AB-1D56-4386-B3E4-DC3FB9E67B61}" name="Cep" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{308FEB7D-8D3E-4F8C-AB10-8CD0653B7473}" name="Tabela1" displayName="Tabela1" ref="A10:E11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{308FEB7D-8D3E-4F8C-AB10-8CD0653B7473}" name="Tabela1" displayName="Tabela1" ref="A10:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FFF79ABF-3F49-41B7-8309-99018F280635}" name="Prédio" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A011DA85-4A4A-45AD-8F56-78177DA0AFD8}" name="Nome do prédio" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3FA0A191-F3E9-4855-BAA7-020F96FA326E}" name="Logradouro" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{4EEBA7AF-0609-4652-A9C3-A328E8E019C5}" name="Número" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{74DE827C-5207-4653-A774-9F2CFE03FE51}" name="Cep" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FFF79ABF-3F49-41B7-8309-99018F280635}" name="Prédio" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A011DA85-4A4A-45AD-8F56-78177DA0AFD8}" name="Nome do prédio" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3FA0A191-F3E9-4855-BAA7-020F96FA326E}" name="Logradouro" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4EEBA7AF-0609-4652-A9C3-A328E8E019C5}" name="Número" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{74DE827C-5207-4653-A774-9F2CFE03FE51}" name="Cep" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B65C1B6-1616-4653-8123-6640E53C4DFD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,13 +1938,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1974,11 +1974,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -2016,28 +2016,28 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -2061,12 +2061,12 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
@@ -2269,13 +2269,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -2303,11 +2303,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
@@ -2345,13 +2345,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -2395,13 +2395,13 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
